--- a/biology/Zoologie/Bothrops_oligobalius/Bothrops_oligobalius.xlsx
+++ b/biology/Zoologie/Bothrops_oligobalius/Bothrops_oligobalius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops oligobalius est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops oligobalius est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne, au nord de l'Amazone. On le rencontre au  Brésil, en Guyane, au Surinam, en Colombie et au Venezuela[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne, au nord de l'Amazone. On le rencontre au  Brésil, en Guyane, au Surinam, en Colombie et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops oligobalius présente un corps robuste et mesure de 280 à 918 mm de longueur totale, dont 35–113 mm pour la queue[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops oligobalius présente un corps robuste et mesure de 280 à 918 mm de longueur totale, dont 35–113 mm pour la queue.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent se nourrit de petits mammifères, de reptiles et d'oiseau[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent se nourrit de petits mammifères, de reptiles et d'oiseau.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bothrops oligobalius a été décrite en 2011 par les herpétologistes brésiliens Francisco Dal Vechio (d), Ivan Prates (d), Felipe G. Grazziotin (d), Roberta Graboski (d) et Miguel T. Rodrigues[1],[2].
-Auparavant les spécimens de cette espèce étaient classés avec ceux de l'espèce Bothrops brazili qui, désormais, ne concerne que les populations au sud de l'Amazone[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bothrops oligobalius a été décrite en 2011 par les herpétologistes brésiliens Francisco Dal Vechio (d), Ivan Prates (d), Felipe G. Grazziotin (d), Roberta Graboski (d) et Miguel T. Rodrigues,.
+Auparavant les spécimens de cette espèce étaient classés avec ceux de l'espèce Bothrops brazili qui, désormais, ne concerne que les populations au sud de l'Amazone.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, oligobalius, dérive du grec ancien ὀλίγος, olígos, « en petite quantité », et βαλιός, balíos, « tacheté », fait référence à sa livrée peu tachetée en comparaison de celle de Bothrops brazili, l'espèce dans laquelle elle était précédemment intégrée[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, oligobalius, dérive du grec ancien ὀλίγος, olígos, « en petite quantité », et βαλιός, balíos, « tacheté », fait référence à sa livrée peu tachetée en comparaison de celle de Bothrops brazili, l'espèce dans laquelle elle était précédemment intégrée.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Francisco Dal Vechio, Ivan Prates, Felipe G. Grazziotin, Roberta Graboski et Miguel Trefaut Rodrigues, « Molecular and phenotypic data reveal a new Amazonian species of pit vipers (Serpentes: Viperidae: Bothrops) », Journal of Natural History, Royaume-Uni, vol. 54, nos 37-38,‎ mars 2021, p. 2415-2437 (ISSN 0022-2933, e-ISSN 1464-5262).</t>
         </is>
